--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp4-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp4-Bmpr1a.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>5.269639666666666</v>
+        <v>4.202518666666666</v>
       </c>
       <c r="H2">
-        <v>15.808919</v>
+        <v>12.607556</v>
       </c>
       <c r="I2">
-        <v>0.09922110188645328</v>
+        <v>0.08075097102331126</v>
       </c>
       <c r="J2">
-        <v>0.09922110188645328</v>
+        <v>0.08075097102331129</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.750436666666666</v>
+        <v>2.341355666666667</v>
       </c>
       <c r="N2">
-        <v>14.25131</v>
+        <v>7.024067000000001</v>
       </c>
       <c r="O2">
-        <v>0.07745299862590357</v>
+        <v>0.03973512964576821</v>
       </c>
       <c r="P2">
-        <v>0.07745299862590357</v>
+        <v>0.0397351296457682</v>
       </c>
       <c r="Q2">
-        <v>25.03308949265444</v>
+        <v>9.839590894472444</v>
       </c>
       <c r="R2">
-        <v>225.29780543389</v>
+        <v>88.556318050252</v>
       </c>
       <c r="S2">
-        <v>0.007684971868072104</v>
+        <v>0.003208650302632945</v>
       </c>
       <c r="T2">
-        <v>0.007684971868072104</v>
+        <v>0.003208650302632946</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>5.269639666666666</v>
+        <v>4.202518666666666</v>
       </c>
       <c r="H3">
-        <v>15.808919</v>
+        <v>12.607556</v>
       </c>
       <c r="I3">
-        <v>0.09922110188645328</v>
+        <v>0.08075097102331126</v>
       </c>
       <c r="J3">
-        <v>0.09922110188645328</v>
+        <v>0.08075097102331129</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>102.158321</v>
       </c>
       <c r="O3">
-        <v>0.5552098927072401</v>
+        <v>0.5779093692199981</v>
       </c>
       <c r="P3">
-        <v>0.5552098927072401</v>
+        <v>0.5779093692199981</v>
       </c>
       <c r="Q3">
-        <v>179.4458468738888</v>
+        <v>143.1074169859418</v>
       </c>
       <c r="R3">
-        <v>1615.012621864999</v>
+        <v>1287.966752873476</v>
       </c>
       <c r="S3">
-        <v>0.05508853733267186</v>
+        <v>0.04666674272798416</v>
       </c>
       <c r="T3">
-        <v>0.05508853733267186</v>
+        <v>0.04666674272798418</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>5.269639666666666</v>
+        <v>4.202518666666666</v>
       </c>
       <c r="H4">
-        <v>15.808919</v>
+        <v>12.607556</v>
       </c>
       <c r="I4">
-        <v>0.09922110188645328</v>
+        <v>0.08075097102331126</v>
       </c>
       <c r="J4">
-        <v>0.09922110188645328</v>
+        <v>0.08075097102331129</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>67.58983000000001</v>
       </c>
       <c r="O4">
-        <v>0.3673371086668564</v>
+        <v>0.3823555011342337</v>
       </c>
       <c r="P4">
-        <v>0.3673371086668564</v>
+        <v>0.3823555011342337</v>
       </c>
       <c r="Q4">
-        <v>118.7246830770856</v>
+        <v>94.68250741727556</v>
       </c>
       <c r="R4">
-        <v>1068.52214769377</v>
+        <v>852.1425667554799</v>
       </c>
       <c r="S4">
-        <v>0.03644759268570932</v>
+        <v>0.03087557799269416</v>
       </c>
       <c r="T4">
-        <v>0.03644759268570932</v>
+        <v>0.03087557799269417</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>117.038589</v>
       </c>
       <c r="I5">
-        <v>0.7345662131494083</v>
+        <v>0.7496282157262072</v>
       </c>
       <c r="J5">
-        <v>0.7345662131494083</v>
+        <v>0.7496282157262073</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.750436666666666</v>
+        <v>2.341355666666667</v>
       </c>
       <c r="N5">
-        <v>14.25131</v>
+        <v>7.024067000000001</v>
       </c>
       <c r="O5">
-        <v>0.07745299862590357</v>
+        <v>0.03973512964576821</v>
       </c>
       <c r="P5">
-        <v>0.07745299862590357</v>
+        <v>0.0397351296457682</v>
       </c>
       <c r="Q5">
-        <v>185.3281348668433</v>
+        <v>91.34298785794034</v>
       </c>
       <c r="R5">
-        <v>1667.95321380159</v>
+        <v>822.0868907214631</v>
       </c>
       <c r="S5">
-        <v>0.05689435589769631</v>
+        <v>0.02978657433800674</v>
       </c>
       <c r="T5">
-        <v>0.05689435589769631</v>
+        <v>0.02978657433800674</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>117.038589</v>
       </c>
       <c r="I6">
-        <v>0.7345662131494083</v>
+        <v>0.7496282157262072</v>
       </c>
       <c r="J6">
-        <v>0.7345662131494083</v>
+        <v>0.7496282157262073</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>102.158321</v>
       </c>
       <c r="O6">
-        <v>0.5552098927072401</v>
+        <v>0.5779093692199981</v>
       </c>
       <c r="P6">
-        <v>0.5552098927072401</v>
+        <v>0.5779093692199981</v>
       </c>
       <c r="Q6">
-        <v>1328.496193827675</v>
+        <v>1328.496193827674</v>
       </c>
       <c r="R6">
         <v>11956.46574444907</v>
       </c>
       <c r="S6">
-        <v>0.4078384283890466</v>
+        <v>0.4332171692998451</v>
       </c>
       <c r="T6">
-        <v>0.4078384283890466</v>
+        <v>0.4332171692998452</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>117.038589</v>
       </c>
       <c r="I7">
-        <v>0.7345662131494083</v>
+        <v>0.7496282157262072</v>
       </c>
       <c r="J7">
-        <v>0.7345662131494083</v>
+        <v>0.7496282157262073</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>67.58983000000001</v>
       </c>
       <c r="O7">
-        <v>0.3673371086668564</v>
+        <v>0.3823555011342337</v>
       </c>
       <c r="P7">
-        <v>0.3673371086668564</v>
+        <v>0.3823555011342337</v>
       </c>
       <c r="Q7">
         <v>878.9575926610968</v>
@@ -880,10 +880,10 @@
         <v>7910.618333949871</v>
       </c>
       <c r="S7">
-        <v>0.2698334288626654</v>
+        <v>0.2866244720883554</v>
       </c>
       <c r="T7">
-        <v>0.2698334288626654</v>
+        <v>0.2866244720883554</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.827567333333334</v>
+        <v>8.827567333333333</v>
       </c>
       <c r="H8">
         <v>26.482702</v>
       </c>
       <c r="I8">
-        <v>0.1662126849641383</v>
+        <v>0.1696208132504815</v>
       </c>
       <c r="J8">
-        <v>0.1662126849641383</v>
+        <v>0.1696208132504815</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.750436666666666</v>
+        <v>2.341355666666667</v>
       </c>
       <c r="N8">
-        <v>14.25131</v>
+        <v>7.024067000000001</v>
       </c>
       <c r="O8">
-        <v>0.07745299862590357</v>
+        <v>0.03973512964576821</v>
       </c>
       <c r="P8">
-        <v>0.07745299862590357</v>
+        <v>0.0397351296457682</v>
       </c>
       <c r="Q8">
-        <v>41.93479953773556</v>
+        <v>20.66847479878156</v>
       </c>
       <c r="R8">
-        <v>377.4131958396201</v>
+        <v>186.016273189034</v>
       </c>
       <c r="S8">
-        <v>0.01287367086013515</v>
+        <v>0.00673990500512852</v>
       </c>
       <c r="T8">
-        <v>0.01287367086013515</v>
+        <v>0.006739905005128521</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.827567333333334</v>
+        <v>8.827567333333333</v>
       </c>
       <c r="H9">
         <v>26.482702</v>
       </c>
       <c r="I9">
-        <v>0.1662126849641383</v>
+        <v>0.1696208132504815</v>
       </c>
       <c r="J9">
-        <v>0.1662126849641383</v>
+        <v>0.1696208132504815</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>102.158321</v>
       </c>
       <c r="O9">
-        <v>0.5552098927072401</v>
+        <v>0.5779093692199981</v>
       </c>
       <c r="P9">
-        <v>0.5552098927072401</v>
+        <v>0.5779093692199981</v>
       </c>
       <c r="Q9">
-        <v>300.6031524292603</v>
+        <v>300.6031524292602</v>
       </c>
       <c r="R9">
-        <v>2705.428371863343</v>
+        <v>2705.428371863342</v>
       </c>
       <c r="S9">
-        <v>0.09228292698552154</v>
+        <v>0.09802545719216885</v>
       </c>
       <c r="T9">
-        <v>0.09228292698552154</v>
+        <v>0.09802545719216889</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.827567333333334</v>
+        <v>8.827567333333333</v>
       </c>
       <c r="H10">
         <v>26.482702</v>
       </c>
       <c r="I10">
-        <v>0.1662126849641383</v>
+        <v>0.1696208132504815</v>
       </c>
       <c r="J10">
-        <v>0.1662126849641383</v>
+        <v>0.1696208132504815</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>67.58983000000001</v>
       </c>
       <c r="O10">
-        <v>0.3673371086668564</v>
+        <v>0.3823555011342337</v>
       </c>
       <c r="P10">
-        <v>0.3673371086668564</v>
+        <v>0.3823555011342337</v>
       </c>
       <c r="Q10">
-        <v>198.8845917911845</v>
+        <v>198.8845917911844</v>
       </c>
       <c r="R10">
         <v>1789.96132612066</v>
       </c>
       <c r="S10">
-        <v>0.06105608711848164</v>
+        <v>0.0648554510531841</v>
       </c>
       <c r="T10">
-        <v>0.06105608711848164</v>
+        <v>0.06485545105318413</v>
       </c>
     </row>
   </sheetData>
